--- a/Final_Files/1242-1000-corr.xlsx
+++ b/Final_Files/1242-1000-corr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marky\projects\CAM_Photosynthesis\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marky\projects\CAM_Photosynthesis\Final_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78F6BD7-D37C-4F94-A7F2-46083F61C5FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF8A1B7-B318-4F3A-964B-7DDAC20CB544}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Run Info" sheetId="1" r:id="rId1"/>
@@ -3540,16 +3540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3901,7 +3901,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3955,11 +3955,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28963,11 +28963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T603"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
